--- a/public/assets/Game play info (thomas)/Starting hero.xlsx
+++ b/public/assets/Game play info (thomas)/Starting hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="4425"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="4425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1658,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
